--- a/tables/variable_key_extract.xlsx
+++ b/tables/variable_key_extract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\AED Dropbox\AED_Cockburn_db\Brendan\CSIEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99F826-D582-46C4-82B6-8E1782A37B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2C6BAE-DAC6-414B-99E1-471A0027D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2445" windowWidth="28800" windowHeight="15540" activeTab="1" xr2:uid="{853EB2E9-FF5C-4358-BF4D-A71863AE7922}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{853EB2E9-FF5C-4358-BF4D-A71863AE7922}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="257">
   <si>
     <t>Variable ID</t>
   </si>
@@ -800,6 +800,12 @@
   </si>
   <si>
     <t>Min Stage Height</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -1151,702 +1157,849 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0BABEA-F164-4638-AA01-400F01F17B81}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>99</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>102</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
         <v>104</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
         <v>107</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
         <v>110</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>111</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
         <v>113</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" t="s">
         <v>119</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>120</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" t="s">
         <v>122</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>123</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
         <v>125</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>126</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>127</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
         <v>129</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>130</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>127</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" t="s">
         <v>132</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>133</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>127</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" t="s">
         <v>135</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>136</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>127</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" t="s">
         <v>138</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>139</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>127</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" t="s">
         <v>141</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>142</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>143</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" t="s">
         <v>145</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>146</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>147</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" t="s">
         <v>149</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>150</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>151</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" t="s">
         <v>153</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>150</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>151</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" t="s">
         <v>154</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>150</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>151</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" t="s">
         <v>155</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>156</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>157</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1857,591 +2010,714 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA9DFA-E8A3-4E2E-AC60-FABC842C1F54}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" t="s">
         <v>163</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
         <v>166</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>167</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
         <v>169</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
         <v>170</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
         <v>171</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>172</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
         <v>174</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>175</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
         <v>177</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>178</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
         <v>180</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>181</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
         <v>183</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>184</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
         <v>186</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>187</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
         <v>189</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1E-3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
         <v>190</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1E-3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" t="s">
         <v>191</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1E-3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>192</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
         <v>194</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1E-3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" t="s">
         <v>195</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1E-3</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>86</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
         <v>196</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" t="s">
         <v>199</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" t="s">
         <v>200</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1E-3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
         <v>201</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>202</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" t="s">
         <v>204</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>205</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="s">
         <v>207</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>1E-3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
         <v>208</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
         <v>209</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>210</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" t="s">
         <v>212</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1E-3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" t="s">
         <v>213</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s">
         <v>214</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
         <v>215</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>216</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s">
         <v>218</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" t="s">
         <v>219</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>220</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" t="s">
         <v>222</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.51</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>223</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
         <v>225</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>226</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
         <v>228</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>229</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
         <v>231</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>232</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
         <v>234</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>235</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" t="s">
         <v>237</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>238</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" t="s">
         <v>240</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>241</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" t="s">
         <v>243</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>244</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
         <v>246</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>247</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
         <v>249</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>250</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" t="s">
         <v>252</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>253</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>254</v>
       </c>
     </row>

--- a/tables/variable_key_extract.xlsx
+++ b/tables/variable_key_extract.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\csiem-science\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337C3D41-D4CC-434D-9220-6530FECA7E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38930CE8-B0D7-480C-8AFE-A14BED18298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="28800" windowHeight="15470" activeTab="1" xr2:uid="{853EB2E9-FF5C-4358-BF4D-A71863AE7922}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{853EB2E9-FF5C-4358-BF4D-A71863AE7922}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>Variable ID</t>
   </si>
@@ -124,86 +124,202 @@
     <t>T</t>
   </si>
   <si>
-    <t>var00014</t>
-  </si>
-  <si>
-    <t>Chlorophyll-a</t>
-  </si>
-  <si>
-    <t>var00029</t>
-  </si>
-  <si>
-    <t>Dissolved Organic Carbon</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>Conv</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Key Value</t>
-  </si>
-  <si>
-    <t>Alkalinity (tot) (CaCO3) (ug/L)</t>
-  </si>
-  <si>
-    <t>var00139</t>
-  </si>
-  <si>
-    <t>Total Alkalinity</t>
-  </si>
-  <si>
-    <t>Bottom Depth (m)</t>
-  </si>
-  <si>
-    <t>var00179</t>
-  </si>
-  <si>
-    <t>Bottom Depth</t>
-  </si>
-  <si>
-    <t>C (sol org) {DOC, DOC as NPOC} (ug/L)</t>
-  </si>
-  <si>
-    <t>Chlorophyll a (by vol) (mg/L)</t>
-  </si>
-  <si>
-    <t>Chlorophyll b (by vol) (mg/L)</t>
-  </si>
-  <si>
-    <t>var00131</t>
-  </si>
-  <si>
-    <t>Chlorophyll-b</t>
-  </si>
-  <si>
-    <t>Chlorophyll c (by vol) (mg/L)</t>
-  </si>
-  <si>
-    <t>var00132</t>
-  </si>
-  <si>
-    <t>Chlorophyll-c</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>salinity</t>
+  </si>
+  <si>
+    <t>sea_water_salinity</t>
+  </si>
+  <si>
+    <t>g kg-1</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>sea_water_temperature</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>var00013</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>C_T</t>
+  </si>
+  <si>
+    <t>turbidity</t>
+  </si>
+  <si>
+    <t>sea_water_turbidity</t>
+  </si>
+  <si>
+    <t>var00129</t>
+  </si>
+  <si>
+    <t>Wind Direction</t>
+  </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>wind_direction</t>
+  </si>
+  <si>
+    <t>wind_to_direction</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>var00130</t>
+  </si>
+  <si>
+    <t>Wind Speed</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>wind_speed</t>
+  </si>
+  <si>
+    <t>m s-1</t>
+  </si>
+  <si>
+    <t>var00140</t>
+  </si>
+  <si>
+    <t>Secchi depth</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>secchi_depth</t>
+  </si>
+  <si>
+    <t>secchi_depth_of_sea_water</t>
+  </si>
+  <si>
+    <t>var00153</t>
+  </si>
+  <si>
+    <t>Air Temperature</t>
+  </si>
+  <si>
+    <t>air_temperature</t>
+  </si>
+  <si>
+    <t>var00154</t>
+  </si>
+  <si>
+    <t>Wet Bulb Air Temperature</t>
+  </si>
+  <si>
+    <t>wet_bulb_air_temperature</t>
+  </si>
+  <si>
+    <t>wet_bulb_temperature</t>
+  </si>
+  <si>
+    <t>var00155</t>
+  </si>
+  <si>
+    <t>Dew Point Temperature</t>
+  </si>
+  <si>
+    <t>dew_point_temperature</t>
+  </si>
+  <si>
+    <t>var00156</t>
+  </si>
+  <si>
+    <t>Relative Humidity</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>relative_humidity</t>
+  </si>
+  <si>
+    <t>var00157</t>
+  </si>
+  <si>
+    <t>Max Wind Speed</t>
+  </si>
+  <si>
+    <t>max_wind_speed</t>
+  </si>
+  <si>
+    <t>wind_speed_of_gust</t>
+  </si>
+  <si>
+    <t>var00177</t>
+  </si>
+  <si>
+    <t>Station level pressure</t>
+  </si>
+  <si>
+    <t>hPa</t>
+  </si>
+  <si>
+    <t>station_level_pressure</t>
+  </si>
+  <si>
+    <t>air_pressure</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Programmatic</t>
+  </si>
+  <si>
+    <t>CF Name</t>
+  </si>
+  <si>
+    <t>CF Units</t>
+  </si>
+  <si>
+    <t>CF Conversion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,8 +345,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +682,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -577,7 +699,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -594,7 +716,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -611,7 +733,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -628,7 +750,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -645,7 +767,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -662,7 +784,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -679,7 +801,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -701,138 +823,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA9DFA-E8A3-4E2E-AC60-FABC842C1F54}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E41"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-273.14999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/variable_key_extract.xlsx
+++ b/tables/variable_key_extract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38930CE8-B0D7-480C-8AFE-A14BED18298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E9997-3DC5-4F8E-8BDA-B690985FEB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{853EB2E9-FF5C-4358-BF4D-A71863AE7922}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Key" sheetId="1" r:id="rId1"/>
     <sheet name="DWER" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>Variable ID</t>
   </si>
@@ -49,57 +52,6 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>var00001</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>cfu/100mL</t>
-  </si>
-  <si>
-    <t>C_{ecoli}</t>
-  </si>
-  <si>
-    <t>var00002</t>
-  </si>
-  <si>
-    <t>Enterococci</t>
-  </si>
-  <si>
-    <t>C_{entercocci}</t>
-  </si>
-  <si>
-    <t>var00003</t>
-  </si>
-  <si>
-    <t>TN:TP</t>
-  </si>
-  <si>
-    <t>mg N / mg P</t>
-  </si>
-  <si>
-    <t>var00004</t>
-  </si>
-  <si>
-    <t>Organic Nitrogen</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>var00005</t>
-  </si>
-  <si>
-    <t>Organic Phosphorus</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
     <t>var00006</t>
   </si>
   <si>
@@ -296,13 +248,97 @@
   </si>
   <si>
     <t>CF Conversion</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Conv</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Key Value</t>
+  </si>
+  <si>
+    <t>Alkalinity (tot) (CaCO3) (ug/L)</t>
+  </si>
+  <si>
+    <t>var00139</t>
+  </si>
+  <si>
+    <t>Bottom Depth (m)</t>
+  </si>
+  <si>
+    <t>var00179</t>
+  </si>
+  <si>
+    <t>C (sol org) {DOC, DOC as NPOC} (ug/L)</t>
+  </si>
+  <si>
+    <t>var00029</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (by vol) (mg/L)</t>
+  </si>
+  <si>
+    <t>var00014</t>
+  </si>
+  <si>
+    <t>Chlorophyll b (by vol) (mg/L)</t>
+  </si>
+  <si>
+    <t>var00131</t>
+  </si>
+  <si>
+    <t>Chlorophyll c (by vol) (mg/L)</t>
+  </si>
+  <si>
+    <t>var00132</t>
+  </si>
+  <si>
+    <t>Chlorophyll sample volume (mL)</t>
+  </si>
+  <si>
+    <t>var00178</t>
+  </si>
+  <si>
+    <t>Cloud cover (%)</t>
+  </si>
+  <si>
+    <t>var00133</t>
+  </si>
+  <si>
+    <t>Cond @ 25 deg C (uS/cm)</t>
+  </si>
+  <si>
+    <t>var00134</t>
+  </si>
+  <si>
+    <t>Flow status (no units)</t>
+  </si>
+  <si>
+    <t>var00135</t>
+  </si>
+  <si>
+    <t>N (sum sol org) {DON} (ug/L)</t>
+  </si>
+  <si>
+    <t>var00032</t>
+  </si>
+  <si>
+    <t>N (sum sol ox) {NOx-N, TON} (ug/L)</t>
+  </si>
+  <si>
+    <t>var00026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +360,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -341,17 +383,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7292CC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7292CC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7292CC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7292CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,6 +431,1470 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Key"/>
+      <sheetName val="Model_TFV"/>
+      <sheetName val="DOT"/>
+      <sheetName val="BOM"/>
+      <sheetName val="DWER"/>
+      <sheetName val="Information"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>var00001</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>E. coli</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>var00002</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Enterococci</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>var00003</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>TN:TP</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>var00004</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Organic Nitrogen</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>var00005</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Organic Phosphorus</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>var00006</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Salinity</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>var00007</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Temperature</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>var00008</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Depth</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>var00009</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Total Nitrogen</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>var00010</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Total Phosphorus</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>var00011</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Total Organic Carbon</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>var00012</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Total Suspended Solids</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>var00013</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Turbidity</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>var00014</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Chlorophyll-a</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>var00015</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Ruppia Biomass</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>var00016</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Suspended Solids #1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>var00017</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Sediment Mass (SS1)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>var00018</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Suspended Solids #2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>var00019</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Sediment Mass (SS2)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>var00020</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Suspended Solids #3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>var00021</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Sediment Mass (SS3)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>var00022</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Water Age</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>var00023</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Oxygen</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>var00024</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Reactive Silica</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>var00025</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Ammonium</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>var00026</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Nitrate</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>var00027</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Filterable Reactive Phosphate</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>var00028</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Adsorped Phosphate</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>var00029</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Dissolved Organic Carbon</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>var00030</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Dissolved Organic Carbon (refractory)</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>var00031</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Particulate Organic Carbon</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>var00032</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Dissolved Organic Nitrogen</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>var00033</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Particulate Organic Nitrogen</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>var00034</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Dissolved Organic Nitrogen (refractory)</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>var00035</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Dissolved Organic Phosphorus</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>var00036</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Particulate Organic Phosphorus</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>var00037</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Dissolved Organic Phosphorus (refractory)</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>var00038</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Phytoplankton Biomass (greens)</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>var00039</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Phytoplankton Biomass (crypt)</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>var00040</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Phytoplankton Biomass (diatom)</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>var00041</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Phytoplankton Biomass (dino)</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>var00042</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Filamentous Algae (floating)</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>var00043</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Filamentous Algae Nitrogen (floating)</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>var00044</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Filamentous Algae Phosphorus (floating)</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>var00045</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Filamentous Algae Biomass (total)</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>var00046</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>Filamentous Algae Biomass (total)</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>var00047</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Filamentous Algae Biomass (total)</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>var00048</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>O2 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>var00049</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>DIC Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>var00050</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>NH4 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>var00051</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>NO3 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>var00052</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>FRP Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>var00053</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>POC Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>var00054</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>DOC Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>var00055</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>PON Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>var00056</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>DON Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>var00057</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>POP Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>var00058</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>DOP Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>var00059</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>Photosynthetically Active Radiation</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>var00060</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>Ruppia Gross Primary Productivity</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>var00061</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>Ruppia Net Primary Productivity</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>var00062</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>Ruppia Biomass</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>var00063</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Ruppia Leaf Area Index</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>var00064</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>Ruppia Biomass (above-ground)</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>var00065</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>Ruppia Biomass (below-ground)</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>var00066</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>Ruppia Root Depth</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>var00067</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>Ruppia O2 Injection Rate</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>var00068</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>Sedimentation Velocity (SS1)</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>var00069</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>Sedimentation Rate (SS1)</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>var00070</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>Sedimentation Velocity (SS2)</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>var00071</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>Sedimentation Rate (SS2)</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>var00072</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>Sedimentation Velocity (SS3)</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>var00073</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>Sedimentation Rate (SS3)</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>var00074</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>Sediment Mass</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>var00075</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>Critical Shear Stress</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>var00076</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>var00077</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>Sediment Fraction (SS1)</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>var00078</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>Sediment Fraction (SS2)</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>var00079</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>Sediment Fraction (SS3)</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>var00080</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>Sedimentation Rate (SS)</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>var00081</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>SS Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>var00082</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>Change in SWI Position</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>var00083</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>Resuspension Rate (SS)</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>var00084</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>Bottom Shear Stress</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>var00085</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>O2 Saturation</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>var00086</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>O2 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>var00087</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>O2 Atmospheric Flux</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>var00088</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>O2 Dissolved Sediment Exchange Rate</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>var00089</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>O2 Atmospheric Exchange Rate</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>var00090</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>Si Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>var00091</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>NH4 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>var00092</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>NO3 Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>var00093</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>Nitrification Rate</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>var00094</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>Denitrification Rate</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>var00095</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>Annamox Rate</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>var00096</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>DNRA Rate</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>var00097</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>DIN Atmospheric Deposition Flux</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>var00098</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>PIP Sedimentation Rate</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>var00099</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>PIP Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>var00100</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>PIP Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>var00101</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>FRP Sorption Rate</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>var00102</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>FRP Dissolved Sediment Flux</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>var00103</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>DIP Atmospheric Deposition Flux</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>var00104</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>POC Sedimentation Rate</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>var00105</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>PON Sedimentation Rate</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>var00106</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>POP Sedimentation Rate</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>var00107</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>Sediment OM Fraction</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>var00108</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>Chromophoric DOM</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>var00109</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>Sediment Total Organic Carbon</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>var00110</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>Sediment Total Organic Nitrogen</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>var00111</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>Sediment Total Organic Phosphorus</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>var00112</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>POC Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>var00113</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>DOC Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>var00114</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>PON Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>var00115</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>DON Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>var00116</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>POP Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>var00117</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>DOP Net SWI Flux</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>var00118</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>POC Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>var00119</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>PON Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>var00120</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>POP Resuspension Rate</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>var00121</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>POC Hydrolysis Rate</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>var00122</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>PON Hydrolysis Rate</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>var00123</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>POP Hydrolysis Rate</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>var00124</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>DOC Mineralisation Rate</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>var00125</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>DON Mineralisation Rate</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>var00126</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>DOP Mineralisation Rate</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>var00127</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>DOC Mineralisation Rate (anaerobic)</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>var00128</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>DOC Mineralisation Rate (denitrification)</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>var00129</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>Wind Direction</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>var00130</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>Wind Speed</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>var00131</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>Chlorophyll-b</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>var00132</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>Chlorophyll-c</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>var00133</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>Cloud Cover</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>var00134</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>Conductivity</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>var00135</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>Flow Status</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>var00136</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>Total TKN</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>var00137</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>pH</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>var00138</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>Phaeophytin a</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>var00139</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>Total Alkalinity</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>var00140</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>Secchi depth</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>var00141</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>Tide status</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>var00142</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>Max Discharge</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>var00143</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>Mean Discharge</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>var00144</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v>Min Discharge</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>var00145</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>Discharge</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>var00146</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v>Max Stage Height CTF</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>var00147</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v>Mean Stage Height CTF</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>var00148</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v>Min Stage Height CTF</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>var00149</v>
+          </cell>
+          <cell r="B150" t="str">
+            <v>Max Stage Height</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>var00150</v>
+          </cell>
+          <cell r="B151" t="str">
+            <v>Mean Stage Height</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>var00151</v>
+          </cell>
+          <cell r="B152" t="str">
+            <v>Min Stage Height</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>var00152</v>
+          </cell>
+          <cell r="B153" t="str">
+            <v>Precipitation</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>var00153</v>
+          </cell>
+          <cell r="B154" t="str">
+            <v>Air Temperature</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>var00154</v>
+          </cell>
+          <cell r="B155" t="str">
+            <v>Wet Bulb Air Temperature</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>var00155</v>
+          </cell>
+          <cell r="B156" t="str">
+            <v>Dew Point Temperature</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>var00156</v>
+          </cell>
+          <cell r="B157" t="str">
+            <v>Relative Humidity</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>var00157</v>
+          </cell>
+          <cell r="B158" t="str">
+            <v>Max Wind Speed</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>var00158</v>
+          </cell>
+          <cell r="B159" t="str">
+            <v>Cloud amount of first group in eighths</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>var00159</v>
+          </cell>
+          <cell r="B160" t="str">
+            <v>Cloud height of first group</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>var00160</v>
+          </cell>
+          <cell r="B161" t="str">
+            <v>Cloud amount of second group in eighths</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>var00161</v>
+          </cell>
+          <cell r="B162" t="str">
+            <v>Cloud height of second group</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>var00162</v>
+          </cell>
+          <cell r="B163" t="str">
+            <v>Cloud amount of third group in eighths</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>var00163</v>
+          </cell>
+          <cell r="B164" t="str">
+            <v>Cloud height of third group</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>var00164</v>
+          </cell>
+          <cell r="B165" t="str">
+            <v>Cloud amount of fourth group in eighths</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>var00165</v>
+          </cell>
+          <cell r="B166" t="str">
+            <v>Cloud height of fourth group</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>var00166</v>
+          </cell>
+          <cell r="B167" t="str">
+            <v>Ceilometer cloud amount of first group</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>var00167</v>
+          </cell>
+          <cell r="B168" t="str">
+            <v>Ceilometer cloud height of first group</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>var00168</v>
+          </cell>
+          <cell r="B169" t="str">
+            <v>Ceilometer cloud amount of second group</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>var00169</v>
+          </cell>
+          <cell r="B170" t="str">
+            <v>Ceilometer cloud height of second group</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>var00170</v>
+          </cell>
+          <cell r="B171" t="str">
+            <v>Ceilometer cloud amount of third group</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>var00171</v>
+          </cell>
+          <cell r="B172" t="str">
+            <v>Ceilometer cloud height of third group</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>var00172</v>
+          </cell>
+          <cell r="B173" t="str">
+            <v>Ceilometer sky clear flag</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>var00173</v>
+          </cell>
+          <cell r="B174" t="str">
+            <v>Horizontal visibility</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>var00174</v>
+          </cell>
+          <cell r="B175" t="str">
+            <v>AWS visibility</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>var00175</v>
+          </cell>
+          <cell r="B176" t="str">
+            <v>Present weather in code</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>var00176</v>
+          </cell>
+          <cell r="B177" t="str">
+            <v>Mean sea level pressure</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>var00177</v>
+          </cell>
+          <cell r="B178" t="str">
+            <v>Station level pressure</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>var00178</v>
+          </cell>
+          <cell r="B179" t="str">
+            <v>Chlorophyll sample volume</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>var00179</v>
+          </cell>
+          <cell r="B180" t="str">
+            <v>Bottom Depth</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>var00180</v>
+          </cell>
+          <cell r="B181" t="str">
+            <v>Tidal Height</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,166 +2194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0BABEA-F164-4638-AA01-400F01F17B81}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA9DFA-E8A3-4E2E-AC60-FABC842C1F54}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -859,42 +2230,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -902,28 +2273,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>-273.14999999999998</v>
@@ -931,28 +2302,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -960,230 +2331,508 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-273.14999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-273.14999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-273.14999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="I13" s="1">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA9DFA-E8A3-4E2E-AC60-FABC842C1F54}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>VLOOKUP(D2,[1]Key!$A$2:$B942,2,TRUE)</f>
+        <v>Total Alkalinity</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>VLOOKUP(D3,[1]Key!$A$2:$B943,2,TRUE)</f>
+        <v>Bottom Depth</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>VLOOKUP(D4,[1]Key!$A$2:$B944,2,TRUE)</f>
+        <v>Dissolved Organic Carbon</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>VLOOKUP(D5,[1]Key!$A$2:$B945,2,TRUE)</f>
+        <v>Chlorophyll-a</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>VLOOKUP(D6,[1]Key!$A$2:$B946,2,TRUE)</f>
+        <v>Chlorophyll-b</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>VLOOKUP(D7,[1]Key!$A$2:$B947,2,TRUE)</f>
+        <v>Chlorophyll-c</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>VLOOKUP(D8,[1]Key!$A$2:$B948,2,TRUE)</f>
+        <v>Chlorophyll sample volume</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>VLOOKUP(D9,[1]Key!$A$2:$B949,2,TRUE)</f>
+        <v>Cloud Cover</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>VLOOKUP(D10,[1]Key!$A$2:$B950,2,TRUE)</f>
+        <v>Conductivity</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>VLOOKUP(D11,[1]Key!$A$2:$B951,2,TRUE)</f>
+        <v>Flow Status</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>VLOOKUP(D12,[1]Key!$A$2:$B952,2,TRUE)</f>
+        <v>Dissolved Organic Nitrogen</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>VLOOKUP(D13,[1]Key!$A$2:$B953,2,TRUE)</f>
+        <v>Nitrate</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>